--- a/tut05/output/0401CS27.xlsx
+++ b/tut05/output/0401CS27.xlsx
@@ -550,25 +550,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.938775510204081</v>
+        <v>7.94</v>
       </c>
       <c r="C6" t="n">
-        <v>7.204545454545454</v>
+        <v>7.2</v>
       </c>
       <c r="D6" t="n">
-        <v>7.465116279069767</v>
+        <v>7.47</v>
       </c>
       <c r="E6" t="n">
-        <v>7.680851063829787</v>
+        <v>7.68</v>
       </c>
       <c r="F6" t="n">
-        <v>8.238095238095237</v>
+        <v>8.24</v>
       </c>
       <c r="G6" t="n">
-        <v>8.425000000000001</v>
+        <v>8.43</v>
       </c>
       <c r="H6" t="n">
-        <v>9.121951219512194</v>
+        <v>9.119999999999999</v>
       </c>
       <c r="I6" t="n">
         <v>9.25</v>
@@ -612,28 +612,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7.938775510204081</v>
+        <v>7.94</v>
       </c>
       <c r="C8" t="n">
-        <v>7.591397849462366</v>
+        <v>7.59</v>
       </c>
       <c r="D8" t="n">
-        <v>7.551470588235294</v>
+        <v>7.55</v>
       </c>
       <c r="E8" t="n">
-        <v>7.584699453551913</v>
+        <v>7.58</v>
       </c>
       <c r="F8" t="n">
-        <v>7.706666666666667</v>
+        <v>7.71</v>
       </c>
       <c r="G8" t="n">
-        <v>7.815094339622641</v>
+        <v>7.82</v>
       </c>
       <c r="H8" t="n">
-        <v>7.990196078431373</v>
+        <v>7.99</v>
       </c>
       <c r="I8" t="n">
-        <v>8.135838150289016</v>
+        <v>8.140000000000001</v>
       </c>
     </row>
   </sheetData>
